--- a/ЭПС.xlsx
+++ b/ЭПС.xlsx
@@ -796,7 +796,7 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -806,6 +806,23 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="44.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="54.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="13" x14ac:dyDescent="0.3">
